--- a/biology/Zoologie/Chlorostrymon/Chlorostrymon.xlsx
+++ b/biology/Zoologie/Chlorostrymon/Chlorostrymon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chlorostrymon est un genre de lépidoptères (papillons) de la famille des Lycaenidae et de la sous-famille des Theclinae.
-Ils résident en Amérique, Amérique centrale et Amérique du Sud[1].
+Ils résident en Amérique, Amérique centrale et Amérique du Sud.
 </t>
         </is>
       </c>
@@ -512,15 +524,17 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Chlorostrymon clenchi Comstock &amp; Huntington, 1943
 Chlorostrymon kuscheli (Ureta, 1949)
 Chlorostrymon maesites (Herrich-Schäffer, 1864)
 Chlorostrymon orbis Johnson &amp; Smith, 1993
-Chlorostrymon simaethis (Drury, [1773])
-Chlorostrymon telea (Hewitson, 1868)[1].
+Chlorostrymon simaethis (Drury, )
+Chlorostrymon telea (Hewitson, 1868).
 Sur les autres projets Wikimedia :
 Chlorostrymon, sur Wikimedia CommonsChlorostrymon, sur Wikispecies
 </t>
